--- a/data/WVIT.xlsx
+++ b/data/WVIT.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHEM 111 or CHEM 127.</t>
+          <t>CHEM 111 or CHEM 127.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AEPS 120 or BOT 121; CHEM 127; and SS 120.</t>
+          <t>AEPS 120 or BOT 121; CHEM 127; and SS 120.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MCRO majors must have MCRO 224; WVIT majors must have MCRO 221 or MCRO 224; and WVIT 202; open to MCRO or WVIT majors only.</t>
+          <t>MCRO majors must have MCRO 224; WVIT majors must have MCRO 221 or MCRO 224; and WVIT 202; open to MCRO or WVIT majors only.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WVIT 202; WVIT major; and at least 18 years in age.</t>
+          <t>WVIT 202; WVIT major; and at least 18 years in age.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W, SP, SU</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AEPS/WVIT 231 or WVIT 232 or WVIT 233.</t>
+          <t>AEPS/WVIT 231 or WVIT 232 or WVIT 233.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F, SU</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AEPS/WVIT 231 or WVIT 232 or WVIT 233.</t>
+          <t>AEPS/WVIT 231 or WVIT 232 or WVIT 233.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AEPS/WVIT 231 or WVIT 232 or WVIT 233.</t>
+          <t>AEPS/WVIT 231 or WVIT 232 or WVIT 233.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WVIT 202; AEPS/WVIT 231 or WVIT 232 or WVIT 233; junior standing; and consent of internship instructor.</t>
+          <t>WVIT 202; AEPS/WVIT 231 or WVIT 232 or WVIT 233; junior standing; and consent of internship instructor.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AGB 212 or ECON 201 or ECON 221 or ECON 222.</t>
+          <t>AGB 212 or ECON 201 or ECON 221 or ECON 222.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WVIT or RPTA major. Co-requisite: AGB 212 or ECON 201 or ECON 221 or ECON 222.</t>
+          <t>WVIT or RPTA major. AGB 212 or ECON 201 or ECON 221 or ECON 222.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAT 217 or STAT 218; and WVIT 343.</t>
+          <t>STAT 217 or STAT 218; and WVIT 343.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WVIT 202; CHEM 312; and CHEM 313; for WVIT majors only.</t>
+          <t>WVIT 202; CHEM 312; and CHEM 313; for WVIT majors only.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WVIT 202; WVIT 365; WVIT major; and at least 18 years in age.</t>
+          <t>WVIT 202; WVIT 365; WVIT major; and at least 18 years in age.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WVIT 404; WVIT major; and at least 18 years in age.</t>
+          <t>WVIT 404; WVIT major; and at least 18 years in age.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WVIT 405; WVIT major; and at least 18 years in age.</t>
+          <t>WVIT 405; WVIT major; and at least 18 years in age.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AEPS/WVIT 231, WVIT 232 or WVIT 233; AEPS 313; AEPS/BOT 323.</t>
+          <t>AEPS/WVIT 231, WVIT 232 or WVIT 233; AEPS 313; AEPS/BOT 323.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WVIT 343.</t>
+          <t>WVIT 343.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -850,12 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AGB 214, SS 221 and WVIT 233. Recommended: WVIT 331, WVIT 332, and WVIT 333.</t>
+          <t>AGB 214, SS 221 and WVIT 233.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WVIT 331, WVIT 332, and WVIT 333.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WVIT 343.</t>
+          <t>WVIT 343.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WVIT 202; STAT 218; WVIT major; and at least 18 years in age.</t>
+          <t>WVIT 202; STAT 218; WVIT major; and at least 18 years in age.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WVIT 102; WVIT 343; and STAT 218.</t>
+          <t>WVIT 102; WVIT 343; and STAT 218.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AGB 214 and WVIT 343.</t>
+          <t>AGB 214 and WVIT 343.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WVIT 343; and one of the following: WVIT 444 or WVIT 450; Senior standing; and WVIT major.</t>
+          <t>WVIT 343; and one of the WVIT 444 or WVIT 450; Senior standing; and WVIT major.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>STAT 218; junior standing; completion of the Graduate Writing Requirement.</t>
+          <t>STAT 218; junior standing; completion of the Graduate Writing Requirement.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>STAT 218; completion of the Graduate Writing Requirement; and consent of instructor.</t>
+          <t>STAT 218; completion of the Graduate Writing Requirement; and consent of instructor.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WVIT 301; WVIT 442; and at least 18 years in age.</t>
+          <t>WVIT 301; WVIT 442; and at least 18 years in age.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
